--- a/sql/nathionalities.xlsx
+++ b/sql/nathionalities.xlsx
@@ -1776,7 +1776,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="61.5" thickBot="1">
